--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.74777418604128</v>
+        <v>33.65726433333334</v>
       </c>
       <c r="H2">
-        <v>8.74777418604128</v>
+        <v>100.971793</v>
       </c>
       <c r="I2">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="J2">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.8131500193987</v>
+        <v>26.83081766666667</v>
       </c>
       <c r="N2">
-        <v>20.8131500193987</v>
+        <v>80.49245300000001</v>
       </c>
       <c r="O2">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="P2">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="Q2">
-        <v>182.0687364699005</v>
+        <v>903.0519224864702</v>
       </c>
       <c r="R2">
-        <v>182.0687364699005</v>
+        <v>8127.467302378231</v>
       </c>
       <c r="S2">
-        <v>0.2883497381952016</v>
+        <v>0.4801803507382353</v>
       </c>
       <c r="T2">
-        <v>0.2883497381952016</v>
+        <v>0.4801803507382353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.74777418604128</v>
+        <v>33.65726433333334</v>
       </c>
       <c r="H3">
-        <v>8.74777418604128</v>
+        <v>100.971793</v>
       </c>
       <c r="I3">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="J3">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.1553561025804</v>
+        <v>10.21969166666667</v>
       </c>
       <c r="N3">
-        <v>10.1553561025804</v>
+        <v>30.659075</v>
       </c>
       <c r="O3">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="P3">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="Q3">
-        <v>88.8367619642096</v>
+        <v>343.966863830164</v>
       </c>
       <c r="R3">
-        <v>88.8367619642096</v>
+        <v>3095.701774471475</v>
       </c>
       <c r="S3">
-        <v>0.1406944297585331</v>
+        <v>0.1828977107556886</v>
       </c>
       <c r="T3">
-        <v>0.1406944297585331</v>
+        <v>0.1828977107556886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.74777418604128</v>
+        <v>33.65726433333334</v>
       </c>
       <c r="H4">
-        <v>8.74777418604128</v>
+        <v>100.971793</v>
       </c>
       <c r="I4">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="J4">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.161768596007359</v>
+        <v>8.297426666666667</v>
       </c>
       <c r="N4">
-        <v>8.161768596007359</v>
+        <v>24.89228</v>
       </c>
       <c r="O4">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="P4">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="Q4">
-        <v>71.39730863659555</v>
+        <v>279.2686826064489</v>
       </c>
       <c r="R4">
-        <v>71.39730863659555</v>
+        <v>2513.41814345804</v>
       </c>
       <c r="S4">
-        <v>0.1130748510280777</v>
+        <v>0.1484957073065515</v>
       </c>
       <c r="T4">
-        <v>0.1130748510280777</v>
+        <v>0.1484957073065515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.566221770718465</v>
+        <v>0.56955</v>
       </c>
       <c r="H5">
-        <v>0.566221770718465</v>
+        <v>1.70865</v>
       </c>
       <c r="I5">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="J5">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.8131500193987</v>
+        <v>26.83081766666667</v>
       </c>
       <c r="N5">
-        <v>20.8131500193987</v>
+        <v>80.49245300000001</v>
       </c>
       <c r="O5">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="P5">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="Q5">
-        <v>11.78485865821299</v>
+        <v>15.28149220205</v>
       </c>
       <c r="R5">
-        <v>11.78485865821299</v>
+        <v>137.53342981845</v>
       </c>
       <c r="S5">
-        <v>0.01866416483493832</v>
+        <v>0.008125637189476131</v>
       </c>
       <c r="T5">
-        <v>0.01866416483493832</v>
+        <v>0.008125637189476131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.566221770718465</v>
+        <v>0.56955</v>
       </c>
       <c r="H6">
-        <v>0.566221770718465</v>
+        <v>1.70865</v>
       </c>
       <c r="I6">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="J6">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1553561025804</v>
+        <v>10.21969166666667</v>
       </c>
       <c r="N6">
-        <v>10.1553561025804</v>
+        <v>30.659075</v>
       </c>
       <c r="O6">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="P6">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="Q6">
-        <v>5.750183714679644</v>
+        <v>5.820625388750001</v>
       </c>
       <c r="R6">
-        <v>5.750183714679644</v>
+        <v>52.38562849875</v>
       </c>
       <c r="S6">
-        <v>0.0091068021937764</v>
+        <v>0.003095004695843197</v>
       </c>
       <c r="T6">
-        <v>0.0091068021937764</v>
+        <v>0.003095004695843197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.566221770718465</v>
+        <v>0.56955</v>
       </c>
       <c r="H7">
-        <v>0.566221770718465</v>
+        <v>1.70865</v>
       </c>
       <c r="I7">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="J7">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.161768596007359</v>
+        <v>8.297426666666667</v>
       </c>
       <c r="N7">
-        <v>8.161768596007359</v>
+        <v>24.89228</v>
       </c>
       <c r="O7">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="P7">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="Q7">
-        <v>4.621371066625647</v>
+        <v>4.725799358</v>
       </c>
       <c r="R7">
-        <v>4.621371066625647</v>
+        <v>42.532194222</v>
       </c>
       <c r="S7">
-        <v>0.007319055226072186</v>
+        <v>0.002512852181295218</v>
       </c>
       <c r="T7">
-        <v>0.007319055226072186</v>
+        <v>0.002512852181295218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.82226541711904</v>
+        <v>7.244787666666667</v>
       </c>
       <c r="H8">
-        <v>6.82226541711904</v>
+        <v>21.734363</v>
       </c>
       <c r="I8">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="J8">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.8131500193987</v>
+        <v>26.83081766666667</v>
       </c>
       <c r="N8">
-        <v>20.8131500193987</v>
+        <v>80.49245300000001</v>
       </c>
       <c r="O8">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="P8">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="Q8">
-        <v>141.9928335986542</v>
+        <v>194.3835769180488</v>
       </c>
       <c r="R8">
-        <v>141.9928335986542</v>
+        <v>1749.452192262439</v>
       </c>
       <c r="S8">
-        <v>0.2248798843097126</v>
+        <v>0.1033596981724601</v>
       </c>
       <c r="T8">
-        <v>0.2248798843097126</v>
+        <v>0.1033596981724601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.82226541711904</v>
+        <v>7.244787666666667</v>
       </c>
       <c r="H9">
-        <v>6.82226541711904</v>
+        <v>21.734363</v>
       </c>
       <c r="I9">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="J9">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.1553561025804</v>
+        <v>10.21969166666667</v>
       </c>
       <c r="N9">
-        <v>10.1553561025804</v>
+        <v>30.659075</v>
       </c>
       <c r="O9">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="P9">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="Q9">
-        <v>69.28253473716308</v>
+        <v>74.03949614380279</v>
       </c>
       <c r="R9">
-        <v>69.28253473716308</v>
+        <v>666.355465294225</v>
       </c>
       <c r="S9">
-        <v>0.1097255967185976</v>
+        <v>0.03936906654151561</v>
       </c>
       <c r="T9">
-        <v>0.1097255967185976</v>
+        <v>0.03936906654151561</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.82226541711904</v>
+        <v>7.244787666666667</v>
       </c>
       <c r="H10">
-        <v>6.82226541711904</v>
+        <v>21.734363</v>
       </c>
       <c r="I10">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="J10">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.161768596007359</v>
+        <v>8.297426666666667</v>
       </c>
       <c r="N10">
-        <v>8.161768596007359</v>
+        <v>24.89228</v>
       </c>
       <c r="O10">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="P10">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="Q10">
-        <v>55.68175163506923</v>
+        <v>60.11309437973778</v>
       </c>
       <c r="R10">
-        <v>55.68175163506923</v>
+        <v>541.01784941764</v>
       </c>
       <c r="S10">
-        <v>0.08818547773509039</v>
+        <v>0.0319639724189343</v>
       </c>
       <c r="T10">
-        <v>0.08818547773509039</v>
+        <v>0.0319639724189343</v>
       </c>
     </row>
   </sheetData>
